--- a/Отчеты/отчет от 12.10.24.xlsx
+++ b/Отчеты/отчет от 12.10.24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Дата/Период</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>08.10.24</t>
+  </si>
+  <si>
+    <t>16.10.24</t>
+  </si>
+  <si>
+    <t>21.10.24</t>
   </si>
 </sst>
 </file>
@@ -415,16 +421,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -546,6 +553,40 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
